--- a/Datos 1.1.xlsx
+++ b/Datos 1.1.xlsx
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>/f1 INEGI. Sistema de Cuentas Nacionales de México.</t>
-  </si>
-  <si>
-    <t>Fuentes:</t>
-  </si>
-  <si>
-    <t>/r1 A partir de 2019/00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cifras Revisadas: </t>
-  </si>
-  <si>
-    <t>/p1 A partir de 2020/00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cifras Preliminares: </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"> San Luis Potosí </t>
   </si>
@@ -71,18 +53,12 @@
   <si>
     <t xml:space="preserve">Entidad Federativa </t>
   </si>
-  <si>
-    <t>Banco de Información Económica (BIE)</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Estadística y Geografía (INEGI)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,18 +80,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -162,9 +126,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -174,8 +137,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,14 +446,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -779,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -980,137 +941,76 @@
     <col min="16136" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
+    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20.779525742185999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11.052634076281</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.391793587615</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>20.779525742185999</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.2721181854420003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>11.052634076281</v>
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.4034039199489996</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8.391793587615</v>
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.087790854099</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5.2721181854420003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4.4034039199489996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2.087790854099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
         <v>1.7546722455920001</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
